--- a/db/order_fields.xlsx
+++ b/db/order_fields.xlsx
@@ -1,49 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb86df6e8f679dfa/Рабочий стол/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_2BB1C8D4DC63F750E941C7F0507F28B57F6BF6A6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4B019F4-844B-48BA-9025-58E347ABF9D2}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
+    <sheet name="Данные о заказе" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
-  <si>
-    <t>awdawd</t>
-  </si>
-  <si>
-    <t>awd</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -62,34 +47,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,32 +408,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8F36BE-DB38-4FAF-898D-A41C92DEA75A}">
-  <dimension ref="A6:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="35" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Наименование заказа</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Дата/время</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Содержимое</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ФИО клиента</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Номер телефона клиента</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Адрес погрузки</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Адрес выгрузки</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Количество рабочих (шт.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Комментарий</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Оплата (в руб.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Стоимость (вирт. руб.)</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/db/order_fields.xlsx
+++ b/db/order_fields.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Данные о заказе" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Данные о заказе" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/db/order_fields.xlsx
+++ b/db/order_fields.xlsx
@@ -1,34 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb86df6e8f679dfa/Рабочий стол/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_A8AC34045F54B49FE602D0F456B8B6FFA83ED072" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73CF6ADD-D5F8-4D45-9FF4-618C3CCD13B0}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Данные о заказе" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Данные о заказе" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Наименование заказа</t>
+  </si>
+  <si>
+    <t>Дата/время</t>
+  </si>
+  <si>
+    <t>Содержимое</t>
+  </si>
+  <si>
+    <t>ФИО клиента</t>
+  </si>
+  <si>
+    <t>Номер телефона клиента</t>
+  </si>
+  <si>
+    <t>Адрес погрузки</t>
+  </si>
+  <si>
+    <t>Адрес выгрузки</t>
+  </si>
+  <si>
+    <t>Количество рабочих (шт.)</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Оплата (в руб.)</t>
+  </si>
+  <si>
+    <t>Стоимость (вирт. руб.)</t>
+  </si>
+  <si>
+    <t>Пробник</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +92,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,98 +394,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="35" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
+    <col min="1" max="2" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Наименование заказа</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Дата/время</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Содержимое</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ФИО клиента</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Номер телефона клиента</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Адрес погрузки</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Адрес выгрузки</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Количество рабочих (шт.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Комментарий</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Оплата (в руб.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Стоимость (вирт. руб.)</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/db/order_fields.xlsx
+++ b/db/order_fields.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb86df6e8f679dfa/Рабочий стол/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dorof\OneDrive\Рабочий стол\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_A8AC34045F54B49FE602D0F456B8B6FFA83ED072" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73CF6ADD-D5F8-4D45-9FF4-618C3CCD13B0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19164E68-4338-475E-B54D-0910527B336D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Наименование заказа</t>
   </si>
@@ -55,7 +55,25 @@
     <t>Стоимость (вирт. руб.)</t>
   </si>
   <si>
-    <t>Пробник</t>
+    <t>Перевозка мебели</t>
+  </si>
+  <si>
+    <t>11.03.2024 в 10:00</t>
+  </si>
+  <si>
+    <t>Шкаф, мебель, кухня</t>
+  </si>
+  <si>
+    <t>Иванов Иван Иванович</t>
+  </si>
+  <si>
+    <t>Октябрьский пр. 42, кв 17</t>
+  </si>
+  <si>
+    <t>Московский пр. 14, кв 54</t>
+  </si>
+  <si>
+    <t>Делать всё аккуратно</t>
   </si>
 </sst>
 </file>
@@ -398,7 +416,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,24 +436,24 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -443,23 +461,23 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>89999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -467,15 +485,15 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -483,7 +501,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -491,7 +509,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/db/order_fields.xlsx
+++ b/db/order_fields.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dorof\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb86df6e8f679dfa/Рабочий стол/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19164E68-4338-475E-B54D-0910527B336D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{19164E68-4338-475E-B54D-0910527B336D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C5E0DB7-4C18-4F2C-91F5-414D4076AC58}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,18 +55,12 @@
     <t>Стоимость (вирт. руб.)</t>
   </si>
   <si>
-    <t>Перевозка мебели</t>
-  </si>
-  <si>
     <t>11.03.2024 в 10:00</t>
   </si>
   <si>
     <t>Шкаф, мебель, кухня</t>
   </si>
   <si>
-    <t>Иванов Иван Иванович</t>
-  </si>
-  <si>
     <t>Октябрьский пр. 42, кв 17</t>
   </si>
   <si>
@@ -74,6 +68,12 @@
   </si>
   <si>
     <t>Делать всё аккуратно</t>
+  </si>
+  <si>
+    <t>Переезд молодой семьи</t>
+  </si>
+  <si>
+    <t>Максимов Игорь Николаевич</t>
   </si>
 </sst>
 </file>
@@ -126,6 +126,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,7 +420,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -437,7 +441,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -445,7 +449,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -453,7 +457,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -469,7 +473,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -477,7 +481,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -493,7 +497,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -501,7 +505,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">

--- a/db/order_fields.xlsx
+++ b/db/order_fields.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb86df6e8f679dfa/Рабочий стол/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{19164E68-4338-475E-B54D-0910527B336D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C5E0DB7-4C18-4F2C-91F5-414D4076AC58}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_C9B134045F54B49FE602D0F456B8B6FF883BF942" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6404887D-A46D-413F-913A-A800D2F645AC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Наименование заказа</t>
   </si>
@@ -55,25 +55,28 @@
     <t>Стоимость (вирт. руб.)</t>
   </si>
   <si>
-    <t>11.03.2024 в 10:00</t>
-  </si>
-  <si>
-    <t>Шкаф, мебель, кухня</t>
-  </si>
-  <si>
-    <t>Октябрьский пр. 42, кв 17</t>
-  </si>
-  <si>
-    <t>Московский пр. 14, кв 54</t>
-  </si>
-  <si>
-    <t>Делать всё аккуратно</t>
-  </si>
-  <si>
-    <t>Переезд молодой семьи</t>
-  </si>
-  <si>
-    <t>Максимов Игорь Николаевич</t>
+    <t>Тестовый</t>
+  </si>
+  <si>
+    <t>Когда-то</t>
+  </si>
+  <si>
+    <t>Что-то</t>
+  </si>
+  <si>
+    <t>Некто</t>
+  </si>
+  <si>
+    <t>Какой-то</t>
+  </si>
+  <si>
+    <t>Откуда-то</t>
+  </si>
+  <si>
+    <t>Куда-то</t>
+  </si>
+  <si>
+    <t>Как-то</t>
   </si>
 </sst>
 </file>
@@ -126,10 +129,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,7 +419,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +432,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -441,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -449,7 +448,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -457,15 +456,15 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>89999999999</v>
+      <c r="B5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -473,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -481,7 +480,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -489,7 +488,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -497,7 +496,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -513,7 +512,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
